--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/70681460/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/70681460/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9930839538574219</v>
+        <v>0.9888140559196472</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9921625256538391</v>
+        <v>0.9874061942100525</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9099642038345337</v>
+        <v>0.8513146638870239</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9923242330551147</v>
+        <v>0.9877490401268005</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9928158521652222</v>
+        <v>0.9884482026100159</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9937018156051636</v>
+        <v>0.9897239208221436</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9928244352340698</v>
+        <v>0.9884695410728455</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9937018156051636</v>
+        <v>0.9897239208221436</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9937880635261536</v>
+        <v>0.9898808598518372</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9941044449806213</v>
+        <v>0.990321934223175</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9847442507743835</v>
+        <v>0.9529466032981873</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9933858513832092</v>
+        <v>0.9892738461494446</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9928540587425232</v>
+        <v>0.9884710311889648</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9922304749488831</v>
+        <v>0.9876294136047363</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9923844337463379</v>
+        <v>0.9878080487251282</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5216936469078064</v>
+        <v>0.4751347303390503</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9931206107139587</v>
+        <v>0.9889073371887207</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9940476417541504</v>
+        <v>0.9902693033218384</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9927555918693542</v>
+        <v>0.9883559942245483</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9933868050575256</v>
+        <v>0.9893029928207397</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9931620359420776</v>
+        <v>0.9889578819274902</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9934206604957581</v>
+        <v>0.9893431663513184</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9237073063850403</v>
+        <v>0.8731090426445007</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4354719817638397</v>
+        <v>0.4018283784389496</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9931426048278809</v>
+        <v>0.9889113903045654</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9928759336471558</v>
+        <v>0.9884970188140869</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9923760294914246</v>
+        <v>0.9877937436103821</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9914491772651672</v>
+        <v>0.9864802956581116</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9929108023643494</v>
+        <v>0.9885414838790894</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.979268491268158</v>
+        <v>0.9674327969551086</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9851149916648865</v>
+        <v>0.9547982215881348</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9819195866584778</v>
+        <v>0.947338342666626</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9928376078605652</v>
+        <v>0.9885147213935852</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9833930134773254</v>
+        <v>0.9503812789916992</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9937076568603516</v>
+        <v>0.9897804260253906</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9440656900405884</v>
+        <v>0.8756103515625</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9792509078979492</v>
+        <v>0.9681992530822754</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9937577247619629</v>
+        <v>0.9898378849029541</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9804028272628784</v>
+        <v>0.9443334937095642</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9769435524940491</v>
+        <v>0.9638078808784485</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9791058897972107</v>
+        <v>0.9409395456314087</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9810397624969482</v>
+        <v>0.9708734750747681</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.97763592004776</v>
+        <v>0.9650514125823975</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7187332510948181</v>
+        <v>0.6270210742950439</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9769605398178101</v>
+        <v>0.9641758799552917</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9941083192825317</v>
+        <v>0.9903207421302795</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9714601635932922</v>
+        <v>0.9558669328689575</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9567435383796692</v>
+        <v>0.9372104406356812</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9914330244064331</v>
+        <v>0.986481785774231</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9714601635932922</v>
+        <v>0.9558669328689575</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.971311092376709</v>
+        <v>0.9556947946548462</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9928047060966492</v>
+        <v>0.9884446859359741</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.993829071521759</v>
+        <v>0.9899325370788574</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9940484762191772</v>
+        <v>0.9902655482292175</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9824564456939697</v>
+        <v>0.9483839869499207</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9941224455833435</v>
+        <v>0.9903609752655029</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9936416745185852</v>
+        <v>0.9895842671394348</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9937403202056885</v>
+        <v>0.989797055721283</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9935569167137146</v>
+        <v>0.9895626902580261</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9797669649124146</v>
+        <v>0.9424716234207153</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7674532532691956</v>
+        <v>0.6436833143234253</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9824056029319763</v>
+        <v>0.9480121731758118</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9824056029319763</v>
+        <v>0.9480121731758118</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9798285365104675</v>
+        <v>0.942196249961853</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9824056029319763</v>
+        <v>0.9480121731758118</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9322134852409363</v>
+        <v>0.9107481837272644</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9927946925163269</v>
+        <v>0.9884434342384338</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9805589318275452</v>
+        <v>0.945212185382843</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9898722171783447</v>
+        <v>0.9842028617858887</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9837223887443542</v>
+        <v>0.950976550579071</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9934220910072327</v>
+        <v>0.989324152469635</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9923305511474609</v>
+        <v>0.9877390265464783</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9837223887443542</v>
+        <v>0.950976550579071</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9914264678955078</v>
+        <v>0.9864897727966309</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9837223887443542</v>
+        <v>0.950976550579071</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9931955337524414</v>
+        <v>0.9889857769012451</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9836519956588745</v>
+        <v>0.9509546756744385</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9914790987968445</v>
+        <v>0.9865320324897766</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9836519956588745</v>
+        <v>0.9509546756744385</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9914727210998535</v>
+        <v>0.9865012764930725</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9914727210998535</v>
+        <v>0.9865012764930725</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9941545128822327</v>
+        <v>0.9904048442840576</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9844480752944946</v>
+        <v>0.9524572491645813</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9931371212005615</v>
+        <v>0.988899290561676</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9838656783103943</v>
+        <v>0.9510738253593445</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9914729595184326</v>
+        <v>0.986481785774231</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9933767914772034</v>
+        <v>0.9892497062683105</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9933776259422302</v>
+        <v>0.9892542362213135</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9933772683143616</v>
+        <v>0.989252507686615</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9933684468269348</v>
+        <v>0.9892511963844299</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9933740496635437</v>
+        <v>0.9892491102218628</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9933570027351379</v>
+        <v>0.9892353415489197</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9939800500869751</v>
+        <v>0.990157425403595</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7898106575012207</v>
+        <v>0.6022172570228577</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9940253496170044</v>
+        <v>0.9901903867721558</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9672534465789795</v>
+        <v>0.9207812547683716</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9928169250488281</v>
+        <v>0.9884663820266724</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9931127429008484</v>
+        <v>0.9889057874679565</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.837113082408905</v>
+        <v>0.759041965007782</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9749676585197449</v>
+        <v>0.9597310423851013</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.992311418056488</v>
+        <v>0.9877211451530457</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.934747576713562</v>
+        <v>0.9133152365684509</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9927963614463806</v>
+        <v>0.9884293079376221</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9776663780212402</v>
+        <v>0.9644596576690674</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.929198682308197</v>
+        <v>0.8766883015632629</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9932237863540649</v>
+        <v>0.9889971017837524</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.979423999786377</v>
+        <v>0.9677727818489075</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9771550297737122</v>
+        <v>0.9647219777107239</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9850714206695557</v>
+        <v>0.9539120197296143</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9936040043830872</v>
+        <v>0.9896152019500732</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9843934178352356</v>
+        <v>0.9518351554870605</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9914143681526184</v>
+        <v>0.9863401651382446</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9922426342964172</v>
+        <v>0.9875591397285461</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8246282339096069</v>
+        <v>0.7537457942962646</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9423820376396179</v>
+        <v>0.8621837496757507</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9328314661979675</v>
+        <v>0.9112002849578857</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9939929842948914</v>
+        <v>0.9901649355888367</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9328314661979675</v>
+        <v>0.9112002849578857</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9939929842948914</v>
+        <v>0.9901649355888367</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9328314661979675</v>
+        <v>0.9112002849578857</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9939724802970886</v>
+        <v>0.9901330471038818</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7916942834854126</v>
+        <v>0.7233607769012451</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9897249937057495</v>
+        <v>0.9842786192893982</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7696362733840942</v>
+        <v>0.6213086247444153</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9923290610313416</v>
+        <v>0.9877210259437561</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5417238473892212</v>
+        <v>0.3847837746143341</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9922333955764771</v>
+        <v>0.9876226186752319</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9934200644493103</v>
+        <v>0.989401638507843</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.99281245470047</v>
+        <v>0.9885103106498718</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9899291396141052</v>
+        <v>0.9842937588691711</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9923305511474609</v>
+        <v>0.9877544045448303</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9923079013824463</v>
+        <v>0.9876804351806641</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9923561811447144</v>
+        <v>0.9877405762672424</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9915696978569031</v>
+        <v>0.9866336584091187</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9935239553451538</v>
+        <v>0.9891626834869385</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.982086181640625</v>
+        <v>0.9473196268081665</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9935699701309204</v>
+        <v>0.9895390868186951</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.982086181640625</v>
+        <v>0.9473196268081665</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9914387464523315</v>
+        <v>0.9864518642425537</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9322134852409363</v>
+        <v>0.9107481837272644</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9931232333183289</v>
+        <v>0.9889127612113953</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9829545617103577</v>
+        <v>0.9488497376441956</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8530133366584778</v>
+        <v>0.8137591481208801</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7944817543029785</v>
+        <v>0.6635885238647461</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9938575625419617</v>
+        <v>0.9899861216545105</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9295635223388672</v>
+        <v>0.8774040937423706</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.993424654006958</v>
+        <v>0.9893205165863037</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9303512573242188</v>
+        <v>0.8777386546134949</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.993588924407959</v>
+        <v>0.9895575642585754</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9308403134346008</v>
+        <v>0.878775417804718</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9936728477478027</v>
+        <v>0.9896982312202454</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9774412512779236</v>
+        <v>0.9381647109985352</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9931377172470093</v>
+        <v>0.9888681173324585</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9927499294281006</v>
+        <v>0.9882733821868896</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9923503994941711</v>
+        <v>0.9877721071243286</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9820137619972229</v>
+        <v>0.9468795657157898</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9939697980880737</v>
+        <v>0.9901324510574341</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9765525460243225</v>
+        <v>0.9359958171844482</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9747586250305176</v>
+        <v>0.9614022970199585</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9850432872772217</v>
+        <v>0.9541663527488708</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9747586250305176</v>
+        <v>0.9614022970199585</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9841904044151306</v>
+        <v>0.952176034450531</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9914665222167969</v>
+        <v>0.9864991903305054</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9923238754272461</v>
+        <v>0.9877285957336426</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9923264980316162</v>
+        <v>0.9877110123634338</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9923238754272461</v>
+        <v>0.9877285957336426</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9923238754272461</v>
+        <v>0.9877285957336426</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9923264980316162</v>
+        <v>0.9877110123634338</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9931665062904358</v>
+        <v>0.9889481067657471</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9899763464927673</v>
+        <v>0.9843544960021973</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9923157691955566</v>
+        <v>0.9877389073371887</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9932065010070801</v>
+        <v>0.9890601634979248</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.992790699005127</v>
+        <v>0.9884190559387207</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9350166916847229</v>
+        <v>0.9126416444778442</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.993626594543457</v>
+        <v>0.9896295666694641</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9936322569847107</v>
+        <v>0.989620566368103</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9937310814857483</v>
+        <v>0.9897562861442566</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9937049746513367</v>
+        <v>0.9897345304489136</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9931532144546509</v>
+        <v>0.9889315366744995</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9933223128318787</v>
+        <v>0.9891691207885742</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9933329224586487</v>
+        <v>0.9891746044158936</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7708447575569153</v>
+        <v>0.573997974395752</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9928758144378662</v>
+        <v>0.988521933555603</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.992381751537323</v>
+        <v>0.9878129363059998</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9290727376937866</v>
+        <v>0.9069211483001709</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9799033999443054</v>
+        <v>0.9685819149017334</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9936374425888062</v>
+        <v>0.9896534085273743</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9937279224395752</v>
+        <v>0.9897889494895935</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9938501119613647</v>
+        <v>0.9899660348892212</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9931244254112244</v>
+        <v>0.988902747631073</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.945702075958252</v>
+        <v>0.8763778209686279</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9931087493896484</v>
+        <v>0.9888805150985718</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9932204484939575</v>
+        <v>0.98903489112854</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9923761487007141</v>
+        <v>0.987810492515564</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9748559594154358</v>
+        <v>0.9612101912498474</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9938987493515015</v>
+        <v>0.9900460839271545</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9922692179679871</v>
+        <v>0.9876551032066345</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.794264018535614</v>
+        <v>0.6073042750358582</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.989903450012207</v>
+        <v>0.9842168092727661</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4800471663475037</v>
+        <v>0.4234865605831146</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9922869205474854</v>
+        <v>0.9876791834831238</v>
       </c>
     </row>
   </sheetData>
